--- a/biology/Botanique/Salvia_patens/Salvia_patens.xlsx
+++ b/biology/Botanique/Salvia_patens/Salvia_patens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Salvia patens (parfois appelée sauge de gentiane ou sauge à tartiner) est une espèce de plantes à fleurs de la famille des Lamiaceae. C'est une plante herbacée vivace originaire d'une vaste région du centre du Mexique. Elle a été introduite dans l'horticulture en 1838 et popularisée cent ans plus tard par William Robinson[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Salvia patens (parfois appelée sauge de gentiane ou sauge à tartiner) est une espèce de plantes à fleurs de la famille des Lamiaceae. C'est une plante herbacée vivace originaire d'une vaste région du centre du Mexique. Elle a été introduite dans l'horticulture en 1838 et popularisée cent ans plus tard par William Robinson.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salvia patens est tubéreuse et se cultive facilement pour l'hivernage dans une serre. Les variétés les plus courantes atteignent 30 à 60 cm de haut et de large, et sont couvertes de feuilles de couleur vert gui en forme de hâte. Les inflorescences atteignent 15 à 30 cm ou plus de long, s'élevant bien au-dessus des feuilles. Les fleurs mesurent environ 2,6 cm et sont d'un bleu pur, espacées le long de l'inflorescence, avec un calice vert de 2,6 cm qui ajoute à l'attrait des fleurs[1].
-L'épithète spécifique patens signifie « étalement »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salvia patens est tubéreuse et se cultive facilement pour l'hivernage dans une serre. Les variétés les plus courantes atteignent 30 à 60 cm de haut et de large, et sont couvertes de feuilles de couleur vert gui en forme de hâte. Les inflorescences atteignent 15 à 30 cm ou plus de long, s'élevant bien au-dessus des feuilles. Les fleurs mesurent environ 2,6 cm et sont d'un bleu pur, espacées le long de l'inflorescence, avec un calice vert de 2,6 cm qui ajoute à l'attrait des fleurs.
+L'épithète spécifique patens signifie « étalement ».
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salvia patens est souvent traitée comme une annuelle par les jardiniers en raison de sa sensibilité aux fortes gelées, les plantes à massifs étant souvent éteintes au printemps. Des variétés ont été développées avec des couleurs allant du blanc au lilas en passant par diverses nuances de bleu. Les graines des Pays-Bas sont disponibles depuis les années 1990 pour les variétés riches en couleurs et à grandes fleurs[1].
-L'espèce et son cultivar « Cambridge blue » ont remporté le prix du mérite du jardin de la Royal Horticultural Society[3],[4]. William Robinson a fait l'éloge de l'espèce dans l'édition de 1933 de The English Flower Garden comme « sans aucun doute, la plus brillante dans la culture, étant surpassée et égalée par peu d'autres fleurs [de jardin] »[5]. Un voyage de collecte au Mexique en 1991 dirigé par James Compton, a permis la découverte d'une variété d'1,8 m de haut à grandes fleurs d'un bleu profond, disponible sous le nom de « Guanajuato »[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salvia patens est souvent traitée comme une annuelle par les jardiniers en raison de sa sensibilité aux fortes gelées, les plantes à massifs étant souvent éteintes au printemps. Des variétés ont été développées avec des couleurs allant du blanc au lilas en passant par diverses nuances de bleu. Les graines des Pays-Bas sont disponibles depuis les années 1990 pour les variétés riches en couleurs et à grandes fleurs.
+L'espèce et son cultivar « Cambridge blue » ont remporté le prix du mérite du jardin de la Royal Horticultural Society,. William Robinson a fait l'éloge de l'espèce dans l'édition de 1933 de The English Flower Garden comme « sans aucun doute, la plus brillante dans la culture, étant surpassée et égalée par peu d'autres fleurs [de jardin] ». Un voyage de collecte au Mexique en 1991 dirigé par James Compton, a permis la découverte d'une variété d'1,8 m de haut à grandes fleurs d'un bleu profond, disponible sous le nom de « Guanajuato ».
 </t>
         </is>
       </c>
